--- a/inputs/cwl-responses.xlsx
+++ b/inputs/cwl-responses.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
   <si>
     <t>Timestamp</t>
   </si>
@@ -30,19 +30,22 @@
     <t xml:space="preserve">Anything else to add? </t>
   </si>
   <si>
+    <t>BB Crazy</t>
+  </si>
+  <si>
+    <t>All 7 wars</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>BumblinMumbler</t>
   </si>
   <si>
-    <t>All 7 wars</t>
-  </si>
-  <si>
     <t>pg</t>
   </si>
   <si>
-    <t>I’m so huge</t>
-  </si>
-  <si>
-    <t>pi314ever</t>
+    <t>I’m HUGEE</t>
   </si>
   <si>
     <t>Protips</t>
@@ -57,16 +60,13 @@
     <t>Sned</t>
   </si>
   <si>
-    <t>hype</t>
-  </si>
-  <si>
-    <t>ImagineWaggons</t>
-  </si>
-  <si>
-    <t>i missed last CWL</t>
-  </si>
-  <si>
-    <t>KLAUS</t>
+    <t>Hype</t>
+  </si>
+  <si>
+    <t>imaginewaggons</t>
+  </si>
+  <si>
+    <t>K.L.A.U.S</t>
   </si>
   <si>
     <t>Marlec</t>
@@ -81,6 +81,15 @@
     <t>GLHF</t>
   </si>
   <si>
+    <t>ERDNUSSFLIP</t>
+  </si>
+  <si>
+    <t>Updated th</t>
+  </si>
+  <si>
+    <t>Rious</t>
+  </si>
+  <si>
     <t>RoyalOne</t>
   </si>
   <si>
@@ -105,9 +114,6 @@
     <t>DNG</t>
   </si>
   <si>
-    <t>ERDNUSSFLIP</t>
-  </si>
-  <si>
     <t>LOGAN911</t>
   </si>
   <si>
@@ -123,6 +129,9 @@
     <t>Updating my TH level, hadn’t noticed my prior registration  was a while ago</t>
   </si>
   <si>
+    <t>Vicream</t>
+  </si>
+  <si>
     <t>CrazyWaveIT</t>
   </si>
   <si>
@@ -141,25 +150,19 @@
     <t>&lt;3</t>
   </si>
   <si>
-    <t>Truthful Lies</t>
-  </si>
-  <si>
-    <t>will be upgrading to th14 during the week (using hammer)</t>
-  </si>
-  <si>
-    <t>SirFluffyy</t>
-  </si>
-  <si>
-    <t>xHead_Bangerx</t>
+    <t>osiris8282</t>
+  </si>
+  <si>
+    <t>slothnz</t>
   </si>
   <si>
     <t>As needed (alt account / filler)</t>
   </si>
   <si>
-    <t>I will be a bit busy during CWL, so only put me in if needed please!</t>
-  </si>
-  <si>
-    <t>slothnz</t>
+    <t xml:space="preserve">Truthful Lies </t>
+  </si>
+  <si>
+    <t>will be on vacation with spotty internet at times</t>
   </si>
   <si>
     <t>Skyeshade</t>
@@ -168,30 +171,15 @@
     <t>Sphinx</t>
   </si>
   <si>
-    <t>Kaselcap</t>
+    <t>Jy</t>
   </si>
   <si>
     <t>None (participation medals only)</t>
   </si>
   <si>
-    <t>Leaving clan</t>
-  </si>
-  <si>
-    <t>Jy</t>
-  </si>
-  <si>
-    <t>Bran6</t>
-  </si>
-  <si>
-    <t>Wish i could participate, but ive got a wedding this weekend so i better sit this one out</t>
-  </si>
-  <si>
     <t>W1nter</t>
   </si>
   <si>
-    <t>Asrar</t>
-  </si>
-  <si>
     <t>gdfan75</t>
   </si>
   <si>
@@ -205,6 +193,9 @@
   </si>
   <si>
     <t>yashwanth</t>
+  </si>
+  <si>
+    <t>BumblinMumbler2</t>
   </si>
 </sst>
 </file>
@@ -549,7 +540,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45680.47422752315</v>
+        <v>45930.81104332176</v>
       </c>
       <c r="B2" s="3">
         <v>17.0</v>
@@ -560,28 +551,28 @@
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45894.72202381944</v>
+        <v>45680.47422752315</v>
       </c>
       <c r="B3" s="3">
         <v>17.0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45833.745411296295</v>
+        <v>45923.67793710648</v>
       </c>
       <c r="B4" s="3">
         <v>17.0</v>
@@ -592,7 +583,9 @@
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
@@ -602,7 +595,7 @@
         <v>17.0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>6</v>
@@ -617,7 +610,7 @@
         <v>17.0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>6</v>
@@ -632,7 +625,7 @@
         <v>17.0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
@@ -647,7 +640,7 @@
         <v>17.0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
@@ -656,13 +649,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>45894.71239078704</v>
+        <v>45923.716446342594</v>
       </c>
       <c r="B9" s="3">
         <v>16.0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>6</v>
@@ -671,24 +664,22 @@
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>45901.425559675925</v>
+        <v>45926.64901583333</v>
       </c>
       <c r="B10" s="3">
         <v>16.0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="E10" s="4"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>45894.837039502316</v>
+        <v>45924.06624068287</v>
       </c>
       <c r="B11" s="3">
         <v>16.0</v>
@@ -750,7 +741,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>45716.531923206014</v>
+        <v>45925.09882895833</v>
       </c>
       <c r="B15" s="3">
         <v>15.0</v>
@@ -761,17 +752,19 @@
       <c r="D15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>45894.91200380787</v>
+        <v>45923.7094221875</v>
       </c>
       <c r="B16" s="3">
         <v>15.0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>6</v>
@@ -780,13 +773,13 @@
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>45774.9153596875</v>
+        <v>45716.531923206014</v>
       </c>
       <c r="B17" s="3">
         <v>15.0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>6</v>
@@ -795,13 +788,13 @@
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>45648.90493895834</v>
+        <v>45924.06577958333</v>
       </c>
       <c r="B18" s="3">
         <v>15.0</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>6</v>
@@ -810,27 +803,25 @@
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>45834.454743993054</v>
+        <v>45774.9153596875</v>
       </c>
       <c r="B19" s="3">
         <v>15.0</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="E19" s="4"/>
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>45865.88695925926</v>
+        <v>45648.90493895834</v>
       </c>
       <c r="B20" s="3">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>28</v>
@@ -842,10 +833,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>45895.824756180555</v>
+        <v>45834.454743993054</v>
       </c>
       <c r="B21" s="3">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>29</v>
@@ -853,17 +844,19 @@
       <c r="D21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>45834.46551282407</v>
+        <v>45865.88695925926</v>
       </c>
       <c r="B22" s="3">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>6</v>
@@ -872,13 +865,13 @@
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>45835.25221895833</v>
+        <v>45926.11662929398</v>
       </c>
       <c r="B23" s="3">
         <v>14.0</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>6</v>
@@ -887,13 +880,13 @@
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>45864.11922607639</v>
+        <v>45835.25221895833</v>
       </c>
       <c r="B24" s="3">
         <v>14.0</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>6</v>
@@ -902,13 +895,13 @@
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>45649.75456119213</v>
+        <v>45864.11922607639</v>
       </c>
       <c r="B25" s="3">
         <v>14.0</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>6</v>
@@ -917,27 +910,25 @@
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>45775.365149861114</v>
+        <v>45649.75456119213</v>
       </c>
       <c r="B26" s="3">
         <v>14.0</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="E26" s="4"/>
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>45715.48201369213</v>
+        <v>45775.365149861114</v>
       </c>
       <c r="B27" s="3">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>36</v>
@@ -951,10 +942,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>45715.48305836806</v>
+        <v>45930.54467555556</v>
       </c>
       <c r="B28" s="3">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>38</v>
@@ -966,7 +957,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>45865.445538113425</v>
+        <v>45715.48201369213</v>
       </c>
       <c r="B29" s="3">
         <v>13.0</v>
@@ -977,28 +968,28 @@
       <c r="D29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="4"/>
+      <c r="E29" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>45798.21223478009</v>
+        <v>45715.48305836806</v>
       </c>
       <c r="B30" s="3">
         <v>13.0</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="E30" s="4"/>
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>45870.11635105324</v>
+        <v>45865.445538113425</v>
       </c>
       <c r="B31" s="3">
         <v>13.0</v>
@@ -1009,41 +1000,39 @@
       <c r="D31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="E31" s="4"/>
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>45870.40751300926</v>
+        <v>45798.21223478009</v>
       </c>
       <c r="B32" s="3">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="4"/>
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>45835.85520719907</v>
+        <v>45923.704647569444</v>
       </c>
       <c r="B33" s="3">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E33" s="4"/>
     </row>
     <row r="34">
       <c r="A34" s="2">
@@ -1053,59 +1042,59 @@
         <v>14.0</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E34" s="4"/>
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>45833.69785351852</v>
+        <v>45920.034724074074</v>
       </c>
       <c r="B35" s="3">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="4"/>
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>45900.38471081018</v>
+        <v>45833.69785351852</v>
       </c>
       <c r="B36" s="3">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E36" s="4"/>
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>45840.53644784722</v>
+        <v>45900.38471081018</v>
       </c>
       <c r="B37" s="3">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E37" s="4"/>
     </row>
     <row r="38">
       <c r="A38" s="2">
@@ -1115,142 +1104,125 @@
         <v>16.0</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E38" s="4"/>
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>45775.68327984954</v>
+        <v>45894.727699849536</v>
       </c>
       <c r="B39" s="3">
         <v>15.0</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>56</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E39" s="4"/>
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <v>45894.727699849536</v>
+        <v>45655.82544435185</v>
       </c>
       <c r="B40" s="3">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E40" s="4"/>
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <v>45835.784689004635</v>
+        <v>45804.68258115741</v>
       </c>
       <c r="B41" s="3">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E41" s="4"/>
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>45655.82544435185</v>
+        <v>45715.48388153935</v>
       </c>
       <c r="B42" s="3">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>45804.68258115741</v>
+        <v>45649.34343501157</v>
       </c>
       <c r="B43" s="3">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E43" s="4"/>
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>45715.48388153935</v>
+        <v>45932.63639908565</v>
       </c>
       <c r="B44" s="3">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>62</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E44" s="4"/>
     </row>
     <row r="45">
-      <c r="A45" s="2">
-        <v>45649.34343501157</v>
-      </c>
-      <c r="B45" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$E$3"/>
-  <conditionalFormatting sqref="A1:E46">
+  <conditionalFormatting sqref="A1:E45">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$D1="All 7 wars"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:E46">
+  <conditionalFormatting sqref="A1:E45">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$D1="None (participation medals only)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:E46">
+  <conditionalFormatting sqref="A1:E45">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$D1="As needed (alt account / filler)"</formula>
     </cfRule>

--- a/inputs/cwl-responses.xlsx
+++ b/inputs/cwl-responses.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
   <si>
     <t>Timestamp</t>
   </si>
@@ -37,22 +37,43 @@
     <t>BB Crazy</t>
   </si>
   <si>
+    <t>8 stars only</t>
+  </si>
+  <si>
+    <t>Sned</t>
+  </si>
+  <si>
+    <t>BumblinMumbler</t>
+  </si>
+  <si>
+    <t>¯\_(ツ)_/¯</t>
+  </si>
+  <si>
+    <t>Genghis Khan</t>
+  </si>
+  <si>
+    <t>Taycid</t>
+  </si>
+  <si>
+    <t>Dr Stone</t>
+  </si>
+  <si>
+    <t>pg</t>
+  </si>
+  <si>
     <t>All 7 wars</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>BumblinMumbler</t>
-  </si>
-  <si>
-    <t>Icebreaker261</t>
-  </si>
-  <si>
-    <t>pg</t>
-  </si>
-  <si>
-    <t>I’m huge</t>
+    <t>So YUGE</t>
+  </si>
+  <si>
+    <t>Satan</t>
+  </si>
+  <si>
+    <t>Erdnussflip</t>
+  </si>
+  <si>
+    <t>Yo</t>
   </si>
   <si>
     <t>Protips</t>
@@ -61,111 +82,126 @@
     <t>Redking</t>
   </si>
   <si>
-    <t>Satan</t>
+    <t>Rious</t>
   </si>
   <si>
     <t>Smitty</t>
   </si>
   <si>
-    <t>Sned</t>
-  </si>
-  <si>
     <t>ERDNUSSFLIP</t>
   </si>
   <si>
-    <t>Yo</t>
+    <t>ImagineWaggons</t>
+  </si>
+  <si>
+    <t>K.L.A.U.S</t>
+  </si>
+  <si>
+    <t>Marlec</t>
+  </si>
+  <si>
+    <t>osiris8282</t>
+  </si>
+  <si>
+    <t>updating th level</t>
+  </si>
+  <si>
+    <t>RoyalOne</t>
+  </si>
+  <si>
+    <t>Welli</t>
+  </si>
+  <si>
+    <t>Anas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ascended </t>
+  </si>
+  <si>
+    <t>GLHF</t>
+  </si>
+  <si>
+    <t>Koshal</t>
+  </si>
+  <si>
+    <t>Nope</t>
+  </si>
+  <si>
+    <t>Vojt</t>
+  </si>
+  <si>
+    <t>⚡ TANJIRO ⚡</t>
+  </si>
+  <si>
+    <t>DNG</t>
+  </si>
+  <si>
+    <t>Motz</t>
+  </si>
+  <si>
+    <t>Rod</t>
+  </si>
+  <si>
+    <t>Updating my TH level, hadn’t noticed my prior registration  was a while ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TruthfulLies </t>
+  </si>
+  <si>
+    <t>Vicream</t>
+  </si>
+  <si>
+    <t>CrazyWaveIT</t>
+  </si>
+  <si>
+    <t>I’m not that good at attacking bases but I’ll do my best</t>
+  </si>
+  <si>
+    <t>NagaStoleMyBike</t>
+  </si>
+  <si>
+    <t>&lt;3</t>
+  </si>
+  <si>
+    <t>Carsonn</t>
+  </si>
+  <si>
+    <t>None (participation medals only)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All hero’s are upgrading need to be taken out </t>
+  </si>
+  <si>
+    <t>Jy</t>
+  </si>
+  <si>
+    <t>gdfan75</t>
+  </si>
+  <si>
+    <t>Matanza</t>
+  </si>
+  <si>
+    <t>Do not include me as filler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChrisThe7th </t>
+  </si>
+  <si>
+    <t>shadow</t>
+  </si>
+  <si>
+    <t>busy with uni :/</t>
   </si>
   <si>
     <t>Hype</t>
   </si>
   <si>
-    <t>ImagineWaggons</t>
-  </si>
-  <si>
-    <t>K.L.A.U.S</t>
-  </si>
-  <si>
-    <t>Marlec</t>
-  </si>
-  <si>
-    <t>Rious</t>
-  </si>
-  <si>
-    <t>Anas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ascended </t>
-  </si>
-  <si>
-    <t>GLHF</t>
-  </si>
-  <si>
-    <t>Carsonn</t>
-  </si>
-  <si>
-    <t>RoyalOne</t>
-  </si>
-  <si>
-    <t>Vojt</t>
-  </si>
-  <si>
-    <t>Welli</t>
-  </si>
-  <si>
-    <t>DNG</t>
-  </si>
-  <si>
-    <t>Mythos</t>
-  </si>
-  <si>
-    <t>Rod</t>
-  </si>
-  <si>
-    <t>Updating my TH level, hadn’t noticed my prior registration  was a while ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TruthfulLies </t>
-  </si>
-  <si>
-    <t>Vicream</t>
-  </si>
-  <si>
-    <t>CrazyWaveIT</t>
-  </si>
-  <si>
-    <t>I’m not that good at attacking bases but I’ll do my best</t>
-  </si>
-  <si>
-    <t>NagaStoleMyBike</t>
-  </si>
-  <si>
-    <t>&lt;3</t>
-  </si>
-  <si>
-    <t>osiris8282</t>
-  </si>
-  <si>
-    <t>Taycid</t>
-  </si>
-  <si>
-    <t>Apollo</t>
-  </si>
-  <si>
-    <t>Fresh TH12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ripexfruit </t>
-  </si>
-  <si>
-    <t>slothnz</t>
+    <t>Standby / bench</t>
   </si>
   <si>
     <t>Truthful Lies</t>
   </si>
   <si>
-    <t>As needed (alt account / filler)</t>
-  </si>
-  <si>
     <t>Will be upgrading th and heroes during hammer jam</t>
   </si>
   <si>
@@ -175,34 +211,10 @@
     <t>Please ping on Discord or in-game clan chat if put in for CWL. Thanks :)</t>
   </si>
   <si>
-    <t>⚡ TANJIRO ⚡</t>
-  </si>
-  <si>
-    <t>Dr. Stone</t>
-  </si>
-  <si>
     <t>Skyeshade</t>
   </si>
   <si>
     <t>BumblinMumbler2</t>
-  </si>
-  <si>
-    <t>Jy</t>
-  </si>
-  <si>
-    <t>None (participation medals only)</t>
-  </si>
-  <si>
-    <t>gdfan75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChrisThe7th </t>
-  </si>
-  <si>
-    <t>shadow</t>
-  </si>
-  <si>
-    <t>busy with uni :/</t>
   </si>
 </sst>
 </file>
@@ -296,13 +308,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,10 +652,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4">
-        <v>45930.81104166667</v>
+        <v>45992.512453703705</v>
       </c>
       <c r="B2" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>5</v>
@@ -651,46 +663,46 @@
       <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="E2" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="4">
-        <v>45680.474224537036</v>
+        <v>45992.53902777778</v>
       </c>
       <c r="B3" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="22.5">
       <c r="A4" s="4">
-        <v>45953.02630787037</v>
+        <v>45971.73886574074</v>
       </c>
       <c r="B4" s="5">
         <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="4">
-        <v>45952.146898148145</v>
+        <v>45992.512291666666</v>
       </c>
       <c r="B5" s="5">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>10</v>
@@ -698,19 +710,17 @@
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="E5" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="4">
-        <v>45833.89664351852</v>
+        <v>45992.74783564815</v>
       </c>
       <c r="B6" s="5">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>6</v>
@@ -719,13 +729,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="4">
-        <v>45961.168032407404</v>
+        <v>46019.11481481481</v>
       </c>
       <c r="B7" s="5">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>6</v>
@@ -734,576 +744,586 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="4">
-        <v>45681.23341435185</v>
+        <v>46019.217986111114</v>
       </c>
       <c r="B8" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="4">
-        <v>45681.16532407407</v>
+        <v>45994.45385416667</v>
       </c>
       <c r="B9" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="4">
-        <v>45679.995092592595</v>
+        <v>45993.10429398148</v>
       </c>
       <c r="B10" s="5">
         <v>17</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="4">
-        <v>45962.09717592593</v>
+        <v>45833.89664351852</v>
       </c>
       <c r="B11" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E11" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="4">
-        <v>45952.479050925926</v>
+        <v>45961.168032407404</v>
       </c>
       <c r="B12" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E12" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="4">
-        <v>45959.712164351855</v>
+        <v>46019.199212962965</v>
       </c>
       <c r="B13" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E13" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="4">
-        <v>45924.06623842593</v>
+        <v>45681.16532407407</v>
       </c>
       <c r="B14" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E14" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="4">
-        <v>45870.10978009259</v>
+        <v>45962.09717592593</v>
       </c>
       <c r="B15" s="5">
         <v>16</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="4">
-        <v>45961.53792824074</v>
+        <v>45959.712164351855</v>
       </c>
       <c r="B16" s="5">
         <v>16</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E16" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="4">
-        <v>45653.15636574074</v>
+        <v>45924.06623842593</v>
       </c>
       <c r="B17" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E17" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="4">
-        <v>45679.996030092596</v>
+        <v>45870.10978009259</v>
       </c>
       <c r="B18" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>26</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E18" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="4">
-        <v>45865.88695601852</v>
+        <v>45992.50818287037</v>
       </c>
       <c r="B19" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="4">
-        <v>45716.53192129629</v>
+        <v>46019.731990740744</v>
       </c>
       <c r="B20" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E20" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="4">
-        <v>45648.90494212963</v>
+        <v>45992.51511574074</v>
       </c>
       <c r="B21" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E21" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="4">
-        <v>45952.01671296296</v>
+        <v>45653.15636574074</v>
       </c>
       <c r="B22" s="5">
         <v>15</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E22" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="4">
-        <v>45956.927349537036</v>
+        <v>45679.996030092596</v>
       </c>
       <c r="B23" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="4">
-        <v>45649.75456018518</v>
+        <v>46019.07986111111</v>
       </c>
       <c r="B24" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="4">
-        <v>45775.36515046296</v>
+        <v>45648.90494212963</v>
       </c>
       <c r="B25" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>34</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E25" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="4">
-        <v>45952.006261574075</v>
+        <v>46019.113657407404</v>
       </c>
       <c r="B26" s="5">
         <v>14</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E26" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="4">
-        <v>45930.54467592593</v>
+        <v>45956.927349537036</v>
       </c>
       <c r="B27" s="5">
         <v>14</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E27" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="4">
-        <v>45715.48201388889</v>
+        <v>45864.11922453704</v>
       </c>
       <c r="B28" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>38</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E28" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="4">
-        <v>45798.212233796294</v>
+        <v>45775.36515046296</v>
       </c>
       <c r="B29" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="4">
-        <v>45923.70465277778</v>
+        <v>45952.006261574075</v>
       </c>
       <c r="B30" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E30" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="4">
-        <v>45960.80255787037</v>
+        <v>45930.54467592593</v>
       </c>
       <c r="B31" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E31" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="4">
-        <v>45952.697847222225</v>
+        <v>45715.48201388889</v>
       </c>
       <c r="B32" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="4">
-        <v>45960.78246527778</v>
+        <v>45798.212233796294</v>
       </c>
       <c r="B33" s="5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="4">
-        <v>45805.79975694444</v>
+        <v>45993.95980324074</v>
       </c>
       <c r="B34" s="5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="4">
-        <v>45959.88072916667</v>
+        <v>45648.05907407407</v>
       </c>
       <c r="B35" s="5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="E35" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="4">
-        <v>45961.01037037037</v>
+        <v>45655.82543981481</v>
       </c>
       <c r="B36" s="5">
         <v>14</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="21">
+        <v>49</v>
+      </c>
+      <c r="E36" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="4">
-        <v>45952.00587962963</v>
+        <v>45992.55039351852</v>
       </c>
       <c r="B37" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="4">
-        <v>45956.38789351852</v>
+        <v>45952.44699074074</v>
       </c>
       <c r="B38" s="5">
         <v>13</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E38" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="4">
-        <v>45833.697858796295</v>
+        <v>45715.483877314815</v>
       </c>
       <c r="B39" s="5">
         <v>13</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="4">
-        <v>45932.636400462965</v>
+        <v>45992.5705787037</v>
       </c>
       <c r="B40" s="5">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E40" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="4">
-        <v>45648.05907407407</v>
+        <v>45959.88072916667</v>
       </c>
       <c r="B41" s="5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="4">
-        <v>45655.82543981481</v>
+        <v>45961.01037037037</v>
       </c>
       <c r="B42" s="5">
         <v>14</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="4">
-        <v>45952.44699074074</v>
+        <v>45833.697858796295</v>
       </c>
       <c r="B43" s="5">
         <v>13</v>
       </c>
       <c r="C43" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="E43" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="4">
-        <v>45715.483877314815</v>
+        <v>45932.636400462965</v>
       </c>
       <c r="B44" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>61</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E44" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="7"/>
